--- a/files/HELBRED.xlsx
+++ b/files/HELBRED.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomaspetersen/Google Drev/JURA/jekyll-quiz/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994D2C02-28B1-DC44-B462-29BAA61C9440}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DDB2F38-1202-CA43-83EF-73504A986D55}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Datasæt!$A$1:$AC$294</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
@@ -759,9 +759,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P261" workbookViewId="0">
-      <selection activeCell="P277" sqref="P277"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
